--- a/config_aomi_4.27/game_module_config.xlsx
+++ b/config_aomi_4.27/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3819,10 +3819,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>通用活动--转盘模板（畅玩礼包）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动--礼包模板（感恩礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4389,6 +4385,10 @@
   </si>
   <si>
     <t>Act_040_MSLBManager</t>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（超值礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5031,10 +5031,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C328" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
+      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6460,7 +6460,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6564,7 +6564,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6593,7 +6593,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11439,13 +11439,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11518,14 +11518,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>1006</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11859,7 +11859,7 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>791</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="44" customFormat="1">
@@ -12059,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12369,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12767,13 +12767,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12793,25 +12793,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12819,13 +12819,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>948</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>949</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12874,7 +12874,7 @@
         <v>912</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D308" s="17" t="s">
         <v>911</v>
@@ -12926,22 +12926,22 @@
         <v>919</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>921</v>
+        <v>1045</v>
       </c>
       <c r="D310" s="17" t="s">
         <v>920</v>
       </c>
       <c r="E310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12949,14 +12949,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C311" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="D311" s="17" t="s">
-        <v>923</v>
-      </c>
       <c r="E311" s="16">
         <v>0</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12975,13 +12975,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>929</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>930</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12998,13 +12998,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13024,13 +13024,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -13050,13 +13050,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13076,13 +13076,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13102,10 +13102,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13117,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="44" customFormat="1">
@@ -13125,11 +13125,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C318" s="43" t="s">
         <v>1036</v>
       </c>
-      <c r="C318" s="43" t="s">
-        <v>1037</v>
-      </c>
       <c r="E318" s="44">
         <v>1</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="44" customFormat="1">
@@ -13148,10 +13148,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E319" s="44">
         <v>1</v>
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="44" customFormat="1">
@@ -13171,10 +13171,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E320" s="44">
         <v>1</v>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="44" customFormat="1">
@@ -13194,10 +13194,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E321" s="44">
         <v>1</v>
@@ -13217,14 +13217,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
+        <v>954</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D322" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="C322" s="43" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D322" s="42" t="s">
-        <v>956</v>
-      </c>
       <c r="E322" s="44">
         <v>1</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="43" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13243,10 +13243,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13267,14 +13267,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>958</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>960</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13293,11 +13293,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="C325" s="14" t="s">
-        <v>962</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13316,14 +13316,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="C326" s="17" t="s">
-        <v>965</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>967</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13334,10 +13334,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13345,14 +13345,14 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>983</v>
-      </c>
       <c r="E327" s="16">
         <v>0</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13371,25 +13371,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>978</v>
-      </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>980</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13397,25 +13397,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>986</v>
-      </c>
-      <c r="E329" s="16">
-        <v>0</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13423,25 +13423,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>990</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="D330" s="16" t="s">
         <v>991</v>
       </c>
-      <c r="D330" s="16" t="s">
+      <c r="E330" s="16">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>992</v>
-      </c>
-      <c r="E330" s="16">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13449,25 +13449,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C331" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="D331" t="s">
         <v>997</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" s="16">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="E331" s="16">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13475,25 +13475,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D332" t="s">
         <v>1000</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="E332" s="16">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1002</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E332" s="16">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16">
-        <v>1</v>
-      </c>
-      <c r="G332" s="16">
-        <v>1</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13501,25 +13501,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D333" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="E333" s="16">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1018</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E333" s="16">
-        <v>1</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13527,25 +13527,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C334" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="D334" t="s">
         <v>1021</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>1022</v>
-      </c>
-      <c r="E334" s="16">
-        <v>1</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13553,11 +13553,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="C335" s="14" t="s">
-        <v>1026</v>
-      </c>
       <c r="E335" s="16">
         <v>1</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13576,13 +13576,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="D336" s="8" t="s">
         <v>1028</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>1029</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13599,13 +13599,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="D337" s="8" t="s">
         <v>1031</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1032</v>
       </c>
       <c r="E337" s="16">
         <v>1</v>
@@ -13622,22 +13622,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C338" t="s">
         <v>1040</v>
       </c>
-      <c r="C338" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>1041</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13645,14 +13645,14 @@
         <v>338</v>
       </c>
       <c r="B339" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C339" t="s">
         <v>1043</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="52" t="s">
         <v>1044</v>
       </c>
-      <c r="D339" s="52" t="s">
-        <v>1045</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi_4.27/game_module_config.xlsx
+++ b/config_aomi_4.27/game_module_config.xlsx
@@ -4307,10 +4307,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4388,6 +4384,10 @@
   </si>
   <si>
     <t>通用活动--转盘模板（超值礼包）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5031,10 +5031,10 @@
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C304" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
+      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11859,7 +11859,7 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>791</v>
@@ -12926,7 +12926,7 @@
         <v>919</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D310" s="17" t="s">
         <v>920</v>
@@ -13102,10 +13102,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13125,10 +13125,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C318" s="43" t="s">
         <v>1035</v>
-      </c>
-      <c r="C318" s="43" t="s">
-        <v>1036</v>
       </c>
       <c r="E318" s="44">
         <v>1</v>
@@ -13148,7 +13148,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C319" s="43" t="s">
         <v>1008</v>
@@ -13194,7 +13194,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C321" s="43" t="s">
         <v>1011</v>
@@ -13553,10 +13553,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1024</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>1025</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
@@ -13576,13 +13576,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>1026</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="D336" s="8" t="s">
         <v>1027</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>1028</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13599,13 +13599,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="D337" s="8" t="s">
         <v>1030</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1031</v>
       </c>
       <c r="E337" s="16">
         <v>1</v>
@@ -13622,22 +13622,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C338" t="s">
         <v>1039</v>
       </c>
-      <c r="C338" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>1040</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13645,14 +13645,14 @@
         <v>338</v>
       </c>
       <c r="B339" s="51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C339" t="s">
         <v>1042</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="52" t="s">
         <v>1043</v>
       </c>
-      <c r="D339" s="52" t="s">
-        <v>1044</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
